--- a/src/test/excelFiles/TestFile.xlsx
+++ b/src/test/excelFiles/TestFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
   <si>
     <t>Ignore Col</t>
   </si>

--- a/src/test/excelFiles/TestFile.xlsx
+++ b/src/test/excelFiles/TestFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
   <si>
     <t>Ignore Col</t>
   </si>

--- a/src/test/excelFiles/TestFile.xlsx
+++ b/src/test/excelFiles/TestFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="14">
   <si>
     <t>Ignore Col</t>
   </si>
